--- a/Multiknapsack/results/fixed_recourse/singlecut/M20_N100_T0_a25_ccg.xlsx
+++ b/Multiknapsack/results/fixed_recourse/singlecut/M20_N100_T0_a25_ccg.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>instance</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>num cuts</t>
   </si>
   <si>
     <t>num variables</t>
@@ -68,6 +71,9 @@
   </si>
   <si>
     <t>MP gap</t>
+  </si>
+  <si>
+    <t>MP solve time</t>
   </si>
   <si>
     <t>Worst violation</t>
@@ -425,13 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,265 +462,298 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-227.57878537734524</v>
+        <v>-105.5674577863067</v>
       </c>
       <c r="C2">
-        <v>8.836460182</v>
+        <v>9.877089863</v>
       </c>
       <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>322</v>
-      </c>
       <c r="G2">
-        <v>245</v>
+        <v>544</v>
       </c>
       <c r="H2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>490</v>
+      </c>
+      <c r="I2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-236.89995809257056</v>
+        <v>-105.84488399353687</v>
       </c>
       <c r="C3">
-        <v>0.068031248</v>
+        <v>4.553145917</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>322</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>245</v>
+        <v>1876</v>
       </c>
       <c r="H3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>1960</v>
+      </c>
+      <c r="I3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-234.73360819292208</v>
+        <v>-105.49382704393324</v>
       </c>
       <c r="C4">
-        <v>0.083863096</v>
+        <v>1.340398027</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>322</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>245</v>
+        <v>766</v>
       </c>
       <c r="H4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>735</v>
+      </c>
+      <c r="I4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-232.95084363095327</v>
+        <v>-104.60548318016069</v>
       </c>
       <c r="C5">
-        <v>0.082267289</v>
+        <v>3.566008495</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>322</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>245</v>
+        <v>766</v>
       </c>
       <c r="H5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>735</v>
+      </c>
+      <c r="I5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-223.95569713963783</v>
+        <v>-103.49903626996942</v>
       </c>
       <c r="C6">
-        <v>0.150115112</v>
+        <v>0.913045347</v>
       </c>
       <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6">
-        <v>322</v>
-      </c>
       <c r="G6">
-        <v>245</v>
+        <v>544</v>
       </c>
       <c r="H6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>490</v>
+      </c>
+      <c r="I6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-229.30109522951756</v>
+        <v>-104.63902673475309</v>
       </c>
       <c r="C7">
-        <v>0.082180275</v>
+        <v>3.818364842</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>322</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>245</v>
+        <v>1210</v>
       </c>
       <c r="H7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>1225</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-221.4677051295246</v>
+        <v>-102.87894890275857</v>
       </c>
       <c r="C8">
-        <v>0.081030946</v>
+        <v>2.882929553</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8">
-        <v>322</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>245</v>
+        <v>766</v>
       </c>
       <c r="H8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>735</v>
+      </c>
+      <c r="I8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-229.22028700507533</v>
+        <v>-105.10124780728994</v>
       </c>
       <c r="C9">
-        <v>0.078145947</v>
+        <v>1.085474927</v>
       </c>
       <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9">
-        <v>322</v>
-      </c>
       <c r="G9">
-        <v>245</v>
+        <v>544</v>
       </c>
       <c r="H9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>490</v>
+      </c>
+      <c r="I9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-234.3341185339081</v>
+        <v>-105.99608264981215</v>
       </c>
       <c r="C10">
-        <v>0.065675463</v>
+        <v>1.621031362</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10">
-        <v>322</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>245</v>
+        <v>766</v>
       </c>
       <c r="H10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>735</v>
+      </c>
+      <c r="I10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-222.48775567500155</v>
+        <v>-102.78699673530127</v>
       </c>
       <c r="C11">
-        <v>0.083522747</v>
+        <v>0.824546749</v>
       </c>
       <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11">
-        <v>322</v>
-      </c>
       <c r="G11">
-        <v>245</v>
+        <v>544</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>490</v>
+      </c>
+      <c r="I11">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -724,27 +763,30 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -755,20 +797,60 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>42.81495</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.024807091080688477</v>
+      </c>
+      <c r="E2">
+        <v>114.1732</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-234.3341185339081</v>
+        <v>-112.25000021603262</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.06729095428828599</v>
       </c>
       <c r="D3">
+        <v>0.2902735498508301</v>
+      </c>
+      <c r="E3">
+        <v>2.46062</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-108.465677524231</v>
+      </c>
+      <c r="C4">
+        <v>0.07954786757176215</v>
+      </c>
+      <c r="D4">
+        <v>0.4165692238967285</v>
+      </c>
+      <c r="E4">
+        <v>1.24122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-105.99608264981215</v>
+      </c>
+      <c r="C5">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <v>0.7267243529099121</v>
+      </c>
+      <c r="E5">
         <v>0.0</v>
       </c>
     </row>
@@ -779,27 +861,30 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -810,20 +895,43 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>40.97182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.037810318666381834</v>
+      </c>
+      <c r="E2">
+        <v>109.25818</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-222.48775567500155</v>
+        <v>-104.92862129487224</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.0001761859205980349</v>
       </c>
       <c r="D3">
+        <v>0.17559417531237792</v>
+      </c>
+      <c r="E3">
+        <v>2.23881</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-102.78699673530127</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>0.4738201083302002</v>
+      </c>
+      <c r="E4">
         <v>0.0</v>
       </c>
     </row>
@@ -834,27 +942,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -865,20 +976,43 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>41.38212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.9299417139998779</v>
+      </c>
+      <c r="E2">
+        <v>110.35232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-227.57878537734524</v>
+        <v>-110.2097596446497</v>
       </c>
       <c r="C3">
-        <v>1.2488734124872789e-14</v>
+        <v>0.07861988395067182</v>
       </c>
       <c r="D3">
+        <v>0.2140496495377197</v>
+      </c>
+      <c r="E3">
+        <v>2.55791</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-105.5674577863067</v>
+      </c>
+      <c r="C4">
+        <v>0.07778799963991212</v>
+      </c>
+      <c r="D4">
+        <v>0.6370056680004883</v>
+      </c>
+      <c r="E4">
         <v>0.0</v>
       </c>
     </row>
@@ -889,27 +1023,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -920,20 +1057,145 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>41.7531</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.039852318389770505</v>
+      </c>
+      <c r="E2">
+        <v>111.3416</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-236.89995809257056</v>
+        <v>-114.48447344423921</v>
       </c>
       <c r="C3">
-        <v>1.1997346753132815e-14</v>
+        <v>0.017116689409024315</v>
       </c>
       <c r="D3">
+        <v>0.34362288648913575</v>
+      </c>
+      <c r="E3">
+        <v>2.70263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-112.15325488811052</v>
+      </c>
+      <c r="C4">
+        <v>0.051492283898939395</v>
+      </c>
+      <c r="D4">
+        <v>0.19658031548840332</v>
+      </c>
+      <c r="E4">
+        <v>2.57829</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-108.28034636071989</v>
+      </c>
+      <c r="C5">
+        <v>0.084872234476175</v>
+      </c>
+      <c r="D5">
+        <v>0.4055290869645996</v>
+      </c>
+      <c r="E5">
+        <v>1.24197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-107.15954991067423</v>
+      </c>
+      <c r="C6">
+        <v>0.05656832432599088</v>
+      </c>
+      <c r="D6">
+        <v>0.33970336160180664</v>
+      </c>
+      <c r="E6">
+        <v>0.78896</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-106.90316204128133</v>
+      </c>
+      <c r="C7">
+        <v>0.09775498126264169</v>
+      </c>
+      <c r="D7">
+        <v>0.37664833471984865</v>
+      </c>
+      <c r="E7">
+        <v>0.67455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-106.22282088436114</v>
+      </c>
+      <c r="C8">
+        <v>0.0</v>
+      </c>
+      <c r="D8">
+        <v>0.5481817804985352</v>
+      </c>
+      <c r="E8">
+        <v>0.64287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>-105.96814250506911</v>
+      </c>
+      <c r="C9">
+        <v>0.0</v>
+      </c>
+      <c r="D9">
+        <v>0.9740244010006104</v>
+      </c>
+      <c r="E9">
+        <v>0.28306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>-105.84488399353687</v>
+      </c>
+      <c r="C10">
+        <v>0.009489590946324575</v>
+      </c>
+      <c r="D10">
+        <v>0.8003340039884033</v>
+      </c>
+      <c r="E10">
         <v>0.0</v>
       </c>
     </row>
@@ -944,27 +1206,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -975,20 +1240,60 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>41.6375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03407275569274902</v>
+      </c>
+      <c r="E2">
+        <v>111.03335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-234.73360819292208</v>
+        <v>-108.48874726587559</v>
       </c>
       <c r="C3">
-        <v>1.210806993050299e-14</v>
+        <v>0.05197358400836149</v>
       </c>
       <c r="D3">
+        <v>0.26114310623046877</v>
+      </c>
+      <c r="E3">
+        <v>2.66041</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-106.52001180165382</v>
+      </c>
+      <c r="C4">
+        <v>0.08346201758457847</v>
+      </c>
+      <c r="D4">
+        <v>0.2518291657077637</v>
+      </c>
+      <c r="E4">
+        <v>1.22164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-105.49382704393324</v>
+      </c>
+      <c r="C5">
+        <v>0.014203919248402877</v>
+      </c>
+      <c r="D5">
+        <v>0.6404534076881103</v>
+      </c>
+      <c r="E5">
         <v>0.0</v>
       </c>
     </row>
@@ -999,27 +1304,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1030,20 +1338,60 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>41.18231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.024388619728759765</v>
+      </c>
+      <c r="E2">
+        <v>109.81948</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-232.95084363095327</v>
+        <v>-106.94702016638213</v>
       </c>
       <c r="C3">
-        <v>1.2200732561165656e-14</v>
+        <v>0.024447386642673794</v>
       </c>
       <c r="D3">
+        <v>2.2398457192061767</v>
+      </c>
+      <c r="E3">
+        <v>2.98988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-104.93000825032118</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>0.4338387424938965</v>
+      </c>
+      <c r="E4">
+        <v>1.1584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-104.60548318016069</v>
+      </c>
+      <c r="C5">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <v>0.6929493667025146</v>
+      </c>
+      <c r="E5">
         <v>0.0</v>
       </c>
     </row>
@@ -1054,27 +1402,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1085,20 +1436,43 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>42.38957</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.0235488464609375</v>
+      </c>
+      <c r="E2">
+        <v>113.03886</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-223.95569713963783</v>
+        <v>-115.80760894334554</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.039926675446081576</v>
       </c>
       <c r="D3">
+        <v>0.3160923960422363</v>
+      </c>
+      <c r="E3">
+        <v>3.46275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-103.49903626996942</v>
+      </c>
+      <c r="C4">
+        <v>0.0007685320564371662</v>
+      </c>
+      <c r="D4">
+        <v>0.44371868626342775</v>
+      </c>
+      <c r="E4">
         <v>0.0</v>
       </c>
     </row>
@@ -1109,27 +1483,30 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1140,20 +1517,94 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>44.36895</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03908864801928711</v>
+      </c>
+      <c r="E2">
+        <v>118.31719</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-229.30109522951756</v>
+        <v>-107.48994551085437</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.06311941968582209</v>
       </c>
       <c r="D3">
+        <v>0.3033412639561768</v>
+      </c>
+      <c r="E3">
+        <v>2.33296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-106.04190565472985</v>
+      </c>
+      <c r="C4">
+        <v>0.0992210988014681</v>
+      </c>
+      <c r="D4">
+        <v>0.4653767433568115</v>
+      </c>
+      <c r="E4">
+        <v>0.82348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-105.2161670349311</v>
+      </c>
+      <c r="C5">
+        <v>0.007745170345574067</v>
+      </c>
+      <c r="D5">
+        <v>0.7714200703634033</v>
+      </c>
+      <c r="E5">
+        <v>1.16243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-104.69792416148029</v>
+      </c>
+      <c r="C6">
+        <v>0.0</v>
+      </c>
+      <c r="D6">
+        <v>0.857795078019165</v>
+      </c>
+      <c r="E6">
+        <v>0.29832</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-104.63902673475309</v>
+      </c>
+      <c r="C7">
+        <v>0.0</v>
+      </c>
+      <c r="D7">
+        <v>1.0828018457559814</v>
+      </c>
+      <c r="E7">
         <v>0.0</v>
       </c>
     </row>
@@ -1164,27 +1615,30 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1195,20 +1649,60 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>40.76909</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.036526595997436524</v>
+      </c>
+      <c r="E2">
+        <v>108.71757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-221.4677051295246</v>
+        <v>-102.99539539303433</v>
       </c>
       <c r="C3">
-        <v>1.283334263736956e-14</v>
+        <v>0.0</v>
       </c>
       <c r="D3">
+        <v>0.7374252933520508</v>
+      </c>
+      <c r="E3">
+        <v>1.25559</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-102.88239964855033</v>
+      </c>
+      <c r="C4">
+        <v>0.08852688865161763</v>
+      </c>
+      <c r="D4">
+        <v>0.7054592480499268</v>
+      </c>
+      <c r="E4">
+        <v>0.07727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-102.87894890275857</v>
+      </c>
+      <c r="C5">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <v>1.2310787269429933</v>
+      </c>
+      <c r="E5">
         <v>0.0</v>
       </c>
     </row>
@@ -1219,27 +1713,30 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1250,20 +1747,43 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>40.07052</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.035428254822753906</v>
+      </c>
+      <c r="E2">
+        <v>106.85473</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-229.22028700507533</v>
+        <v>-106.95090614964926</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.008820262632069574</v>
       </c>
       <c r="D3">
+        <v>0.3669244473031006</v>
+      </c>
+      <c r="E3">
+        <v>2.17218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-105.10124780728994</v>
+      </c>
+      <c r="C4">
+        <v>0.03632576080049525</v>
+      </c>
+      <c r="D4">
+        <v>0.5607663277716064</v>
+      </c>
+      <c r="E4">
         <v>0.0</v>
       </c>
     </row>
